--- a/378-rc---professionnel-de-lévènement/ig/StructureDefinition-tddui-comment.xlsx
+++ b/378-rc---professionnel-de-lévènement/ig/StructureDefinition-tddui-comment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-20T07:18:16+00:00</t>
+    <t>2025-10-20T09:45:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
